--- a/biology/Histoire de la zoologie et de la botanique/Lorenz_Müller/Lorenz_Müller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lorenz_Müller/Lorenz_Müller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorenz_M%C3%BCller</t>
+          <t>Lorenz_Müller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorenz Müller est un herpétologiste allemand, né le 18 février 1868 à Mayence et mort le 1er février 1953 à Munich.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorenz_M%C3%BCller</t>
+          <t>Lorenz_Müller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études dans le domaine de l’art et se rend à Paris, en Belgique et aux Pays-Bas. Il est passionné dès son jeune âge par la terrariophilie et élève de nombreux amphibiens et reptiles. Il entre en contact avec Oskar Boettger (1844-1910) et Willy Wolterstorff (1884-1943), les deux scientifiques l’encouragent.
 Il commence à travailler comme illustrateur au Collection zoologique d'État de Munich mais, comme les collections herpétologiques n’ont pas de taxidermiste, il exerce les fonctions de conservateur à partir de 1903. Ces collections sont anciennes et très riches, notamment constituées des spécimens de Johann Baptist von Spix (1781-1826) et de Johann Georg Wagler (1800-1832). Sous sa direction, la collection s’enrichit rapidement.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lorenz_M%C3%BCller</t>
+          <t>Lorenz_Müller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.</t>
         </is>
